--- a/TestData/Web_POS/Order/manual_discount_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/manual_discount_order_test_data.xlsx
@@ -1,403 +1,430 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\Zwing QA Automation\zwing-qa-automation\TestData\Web_POS\Order\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>TC_Id</t>
-  </si>
-  <si>
-    <t>serial_key</t>
-  </si>
-  <si>
-    <t>username_admin</t>
-  </si>
-  <si>
-    <t>password_admin</t>
-  </si>
-  <si>
-    <t>username_pos</t>
-  </si>
-  <si>
-    <t>password_pos</t>
-  </si>
-  <si>
-    <t>closing_balance</t>
-  </si>
-  <si>
-    <t>opening_balance</t>
-  </si>
-  <si>
-    <t>store_name</t>
-  </si>
-  <si>
-    <t>buy_items</t>
-  </si>
-  <si>
-    <t>get_items</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>manual_discount</t>
-  </si>
-  <si>
-    <t>discount_value</t>
-  </si>
-  <si>
-    <t>tax_invoice</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>307260624WoJ</t>
-  </si>
-  <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
-  </si>
-  <si>
-    <t>usertwo_p1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>list : Assortment_Item</t>
-  </si>
-  <si>
-    <t>Amount : 10</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>list : Fixed_Amounnt</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>list : Percentage_Item</t>
-  </si>
-  <si>
-    <t>Percentage : 10</t>
-  </si>
-  <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>list : Customer_Group_Item</t>
-  </si>
-  <si>
-    <t>Amount : 20</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>list : Store_Item</t>
-  </si>
-  <si>
-    <t>TC_06</t>
-  </si>
-  <si>
-    <t>list : Date_Item</t>
-  </si>
-  <si>
-    <t>Percentage : 30</t>
-  </si>
-  <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>list : Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>list : Fixed_Amount_Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>list : Percentage_Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>list : Customer_Group_Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>list : Store_Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>list : Date_Bill_Level</t>
-  </si>
-  <si>
-    <t>TC_13</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Amount : 10</t>
-  </si>
-  <si>
-    <t>TC_14</t>
-  </si>
-  <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Percentage : 10</t>
-  </si>
-  <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>TC_18</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>TC_20</t>
-  </si>
-  <si>
-    <t>TC_21</t>
-  </si>
-  <si>
-    <t>TC_22</t>
-  </si>
-  <si>
-    <t>TC_23</t>
-  </si>
-  <si>
-    <t>TC_24</t>
-  </si>
-  <si>
-    <t>TC_25</t>
-  </si>
-  <si>
-    <t>307260624ut0</t>
-  </si>
-  <si>
-    <t>usertwo_p2</t>
-  </si>
-  <si>
-    <t>TC_26</t>
-  </si>
-  <si>
-    <t>userone_p1</t>
-  </si>
-  <si>
-    <t>TC_27</t>
-  </si>
-  <si>
-    <t>307260624PTe</t>
-  </si>
-  <si>
-    <t>userone_p4</t>
-  </si>
-  <si>
-    <t>TC_28</t>
-  </si>
-  <si>
-    <t>307260624uOm</t>
-  </si>
-  <si>
-    <t>userone_p5</t>
-  </si>
-  <si>
-    <t>TC_29</t>
-  </si>
-  <si>
-    <t>TC_30</t>
-  </si>
-  <si>
-    <t>TC_31</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Percentage : 51</t>
-  </si>
-  <si>
-    <t>Percentage : 51</t>
-  </si>
-  <si>
-    <t>TC_32</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Amount : 600</t>
-  </si>
-  <si>
-    <t>Amount : 600</t>
-  </si>
-  <si>
-    <t>TC_33</t>
-  </si>
-  <si>
-    <t>userone_p2</t>
-  </si>
-  <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>TC_35</t>
-  </si>
-  <si>
-    <t>307260624SF2</t>
-  </si>
-  <si>
-    <t>userone_p6</t>
-  </si>
-  <si>
-    <t>TC_36</t>
-  </si>
-  <si>
-    <t>307260624cuS</t>
-  </si>
-  <si>
-    <t>userone_p7</t>
-  </si>
-  <si>
-    <t>TC_37</t>
-  </si>
-  <si>
-    <t>TC_38</t>
-  </si>
-  <si>
-    <t>TC_39</t>
-  </si>
-  <si>
-    <t>TC_40</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Percentage : 40</t>
-  </si>
-  <si>
-    <t>Percentage : 40</t>
-  </si>
-  <si>
-    <t>TC_41</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Amount : 801</t>
-  </si>
-  <si>
-    <t>Amount : 801</t>
-  </si>
-  <si>
-    <t>TC_42</t>
-  </si>
-  <si>
-    <t>Custom_Discount_Amount : 60</t>
-  </si>
-  <si>
-    <t>Amount : 60</t>
-  </si>
-  <si>
-    <t>TC_43</t>
-  </si>
-  <si>
-    <t>TC_44</t>
-  </si>
-  <si>
-    <t>TC_45</t>
-  </si>
-  <si>
-    <t>3072606245nJ</t>
-  </si>
-  <si>
-    <t>userone_p3</t>
-  </si>
-  <si>
-    <t>TC_46</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="116">
+  <si>
+    <t xml:space="preserve">TC_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial_key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password_pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opening_balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buy_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual_discount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discount_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax_invoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624WoJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zwshashank.agrawal@teampureplay.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usertwo_p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index9QA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8906118410781 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Assortment_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Fixed_Amounnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Percentage_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Customer_Group_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Store_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Date_Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage : 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Fixed_Amount_Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Percentage_Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Customer_Group_Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Store_Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list : Date_Bill_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Amount : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Percentage : 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624ut0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usertwo_p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624PTe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624uOm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Percentage : 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage : 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Amount : 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624SF2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624cuS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">userone_p7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Percentage : 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage : 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Amount : 801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom_Discount_Amount : 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount : 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307260624P3E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_46</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF2B579A"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,159 +432,260 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellStyleXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
-    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="20"/>
+    <cellStyle name="HeaderStyle" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFE7E7E7"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF2B579A"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -565,34 +693,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -605,13 +723,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -621,15 +733,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -637,7 +747,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -645,12 +754,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -659,49 +767,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryRight="0" summaryBelow="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="K25">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="19.28516" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="19.28516" customWidth="1"/>
-    <col min="5" max="5" width="18.57031" customWidth="1"/>
-    <col min="6" max="6" width="14.85547" customWidth="1"/>
-    <col min="7" max="7" width="16.71094" customWidth="1"/>
-    <col min="8" max="8" width="19.14063" customWidth="1"/>
-    <col min="9" max="9" width="19.14063" customWidth="1"/>
-    <col min="10" max="10" width="39.71094" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32" style="1" customWidth="1"/>
-    <col min="12" max="12" width="32" style="1" customWidth="1"/>
-    <col min="13" max="13" width="28.71094" customWidth="1"/>
-    <col min="14" max="14" width="10.71094" customWidth="1"/>
-    <col min="15" max="15" width="10.71094" customWidth="1"/>
-    <col min="16" max="16" width="30.57031" customWidth="1"/>
-    <col min="17" max="17" width="19.14063" customWidth="1"/>
-    <col min="18" max="18" width="19.14063" customWidth="1"/>
-    <col min="19" max="19" width="19.14063" customWidth="1"/>
-    <col min="20" max="20" width="36.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="22.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.92969" customWidth="1"/>
-    <col min="24" max="24" width="29.45703" style="1" customWidth="1"/>
-    <col min="25" max="25" width="29.45703" style="1" customWidth="1"/>
-    <col min="26" max="26" width="29.45703" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.20703" customWidth="1"/>
-    <col min="28" max="28" width="15" customWidth="1"/>
-    <col min="29" max="29" width="18.92969" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="30.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="36.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="23.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="1" width="29.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="23.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.93"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -719,48 +820,48 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -769,19 +870,19 @@
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>500</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -793,7 +894,7 @@
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -808,15 +909,15 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="s">
+      <c r="S2" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -825,19 +926,19 @@
       <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G3">
-        <v>1000</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>500</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -849,7 +950,7 @@
       <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -864,15 +965,15 @@
       <c r="P3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" ht="31.5" customHeight="1">
-      <c r="A4" t="s">
+      <c r="S3" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -881,19 +982,19 @@
       <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G4">
-        <v>1000</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>300</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -905,7 +1006,7 @@
       <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -920,15 +1021,15 @@
       <c r="P4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" t="s">
+      <c r="S4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -937,19 +1038,19 @@
       <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="0" t="n">
         <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -961,7 +1062,7 @@
       <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -976,15 +1077,15 @@
       <c r="P5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" ht="26.25" customHeight="1">
-      <c r="A6" t="s">
+      <c r="S5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -993,19 +1094,19 @@
       <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G6">
-        <v>1000</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="0" t="n">
         <v>800</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1017,7 +1118,7 @@
       <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1032,15 +1133,15 @@
       <c r="P6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" t="s">
+      <c r="S6" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1049,19 +1150,19 @@
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G7">
-        <v>1000</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1073,7 +1174,7 @@
       <c r="K7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1088,15 +1189,15 @@
       <c r="P7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" ht="31.5" customHeight="1">
-      <c r="A8" t="s">
+      <c r="S7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1105,19 +1206,19 @@
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G8">
-        <v>1000</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1129,7 +1230,7 @@
       <c r="K8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1144,15 +1245,15 @@
       <c r="P8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" ht="32.25" customHeight="1">
-      <c r="A9" t="s">
+      <c r="S8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1161,19 +1262,19 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G9">
-        <v>1000</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1185,7 +1286,7 @@
       <c r="K9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1200,15 +1301,15 @@
       <c r="P9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" customHeight="1">
-      <c r="A10" t="s">
+      <c r="S9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1217,19 +1318,19 @@
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G10">
-        <v>1000</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1241,7 +1342,7 @@
       <c r="K10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1256,15 +1357,15 @@
       <c r="P10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" t="s">
+      <c r="S10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1273,19 +1374,19 @@
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1297,7 +1398,7 @@
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1312,15 +1413,15 @@
       <c r="P11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" t="s">
+      <c r="S11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1329,19 +1430,19 @@
       <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G12">
-        <v>1000</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1353,7 +1454,7 @@
       <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M12" s="3" t="s">
@@ -1368,15 +1469,15 @@
       <c r="P12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" t="s">
+      <c r="S12" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1385,19 +1486,19 @@
       <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G13">
-        <v>1000</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1409,7 +1510,7 @@
       <c r="K13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1424,15 +1525,15 @@
       <c r="P13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" t="s">
+      <c r="S13" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1441,19 +1542,19 @@
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1465,7 +1566,7 @@
       <c r="K14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1477,18 +1578,18 @@
       <c r="O14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="Q14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" t="s">
+      <c r="S14" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1497,19 +1598,19 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G15">
-        <v>1000</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1521,7 +1622,7 @@
       <c r="K15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1533,18 +1634,18 @@
       <c r="O15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" t="s">
+      <c r="S15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1553,19 +1654,19 @@
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G16">
-        <v>1000</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1577,7 +1678,7 @@
       <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1589,18 +1690,18 @@
       <c r="O16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" t="s">
+      <c r="S16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1609,19 +1710,19 @@
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G17">
-        <v>1000</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1633,7 +1734,7 @@
       <c r="K17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1645,18 +1746,18 @@
       <c r="O17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="Q17" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" t="s">
+      <c r="S17" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1665,19 +1766,19 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G18">
-        <v>1000</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1689,7 +1790,7 @@
       <c r="K18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1701,18 +1802,18 @@
       <c r="O18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="Q18" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" t="s">
+      <c r="S18" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1721,19 +1822,19 @@
       <c r="C19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G19">
-        <v>1000</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1745,7 +1846,7 @@
       <c r="K19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M19" s="3" t="s">
@@ -1757,18 +1858,18 @@
       <c r="O19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="S19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" t="s">
+      <c r="S19" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1777,19 +1878,19 @@
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G20">
-        <v>1000</v>
-      </c>
-      <c r="H20">
+      <c r="F20" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1801,7 +1902,7 @@
       <c r="K20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1816,15 +1917,15 @@
       <c r="P20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" t="s">
+      <c r="S20" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1833,19 +1934,19 @@
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1857,7 +1958,7 @@
       <c r="K21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1872,15 +1973,15 @@
       <c r="P21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" t="s">
+      <c r="S21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1889,19 +1990,19 @@
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-      <c r="H22">
+      <c r="F22" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1913,7 +2014,7 @@
       <c r="K22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1928,15 +2029,15 @@
       <c r="P22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="Q22" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" t="s">
+      <c r="S22" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1945,19 +2046,19 @@
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1969,7 +2070,7 @@
       <c r="K23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -1984,15 +2085,15 @@
       <c r="P23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="S23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" t="s">
+      <c r="S23" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2001,19 +2102,19 @@
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2025,7 +2126,7 @@
       <c r="K24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2040,10 +2141,10 @@
       <c r="P24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T24" s="4"/>
@@ -2051,8 +2152,8 @@
       <c r="V24" s="4"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" ht="14.25">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2061,19 +2162,19 @@
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2085,7 +2186,7 @@
       <c r="K25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2100,15 +2201,15 @@
       <c r="P25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="S25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25">
-      <c r="A26" t="s">
+      <c r="S25" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2117,19 +2218,19 @@
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G26">
-        <v>1000</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2141,7 +2242,7 @@
       <c r="K26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2153,18 +2254,18 @@
       <c r="O26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P26" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25">
-      <c r="A27" t="s">
+      <c r="P26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2173,19 +2274,19 @@
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G27">
-        <v>1000</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2197,7 +2298,7 @@
       <c r="K27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M27" s="3" t="s">
@@ -2209,18 +2310,18 @@
       <c r="O27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>25</v>
-      </c>
-      <c r="S27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25">
-      <c r="A28" t="s">
+      <c r="P27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2229,19 +2330,19 @@
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G28">
-        <v>1000</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2253,7 +2354,7 @@
       <c r="K28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M28" s="3" t="s">
@@ -2265,18 +2366,18 @@
       <c r="O28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>25</v>
-      </c>
-      <c r="S28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25">
-      <c r="A29" t="s">
+      <c r="P28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2285,19 +2386,19 @@
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F29" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G29">
-        <v>1000</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2309,7 +2410,7 @@
       <c r="K29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -2321,13 +2422,13 @@
       <c r="O29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>25</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="P29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T29" s="4"/>
@@ -2335,8 +2436,8 @@
       <c r="V29" s="4"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" ht="14.25">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2345,19 +2446,19 @@
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G30">
-        <v>1000</v>
-      </c>
-      <c r="H30">
+      <c r="F30" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2369,7 +2470,7 @@
       <c r="K30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2381,13 +2482,13 @@
       <c r="O30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>25</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="P30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T30" s="4"/>
@@ -2395,8 +2496,8 @@
       <c r="V30" s="4"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" ht="14.25">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2405,19 +2506,19 @@
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G31">
-        <v>1000</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2429,7 +2530,7 @@
       <c r="K31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M31" s="3" t="s">
@@ -2441,13 +2542,13 @@
       <c r="O31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P31" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>25</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="P31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T31" s="4"/>
@@ -2455,8 +2556,8 @@
       <c r="V31" s="4"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" ht="14.25">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2465,19 +2566,19 @@
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G32">
-        <v>1000</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2489,7 +2590,7 @@
       <c r="K32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M32" s="3" t="s">
@@ -2501,13 +2602,13 @@
       <c r="O32" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="Q32" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T32" s="4"/>
@@ -2515,8 +2616,8 @@
       <c r="V32" s="4"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" ht="14.25">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2525,19 +2626,19 @@
       <c r="C33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33">
+      <c r="F33" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2549,7 +2650,7 @@
       <c r="K33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M33" s="3" t="s">
@@ -2561,13 +2662,13 @@
       <c r="O33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q33" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T33" s="4"/>
@@ -2575,8 +2676,8 @@
       <c r="V33" s="4"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" ht="14.25">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2585,19 +2686,19 @@
       <c r="C34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F34" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G34">
-        <v>1000</v>
-      </c>
-      <c r="H34">
+      <c r="F34" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2609,7 +2710,7 @@
       <c r="K34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2621,19 +2722,19 @@
       <c r="O34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P34" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>25</v>
-      </c>
-      <c r="S34" t="s">
+      <c r="P34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W34" s="1"/>
     </row>
-    <row r="35" ht="14.25">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2642,19 +2743,19 @@
       <c r="C35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G35">
-        <v>1000</v>
-      </c>
-      <c r="H35">
+      <c r="F35" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2666,7 +2767,7 @@
       <c r="K35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M35" s="3" t="s">
@@ -2678,19 +2779,19 @@
       <c r="O35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>25</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="P35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W35" s="1"/>
     </row>
-    <row r="36" ht="14.25">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2699,19 +2800,19 @@
       <c r="C36" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G36">
-        <v>1000</v>
-      </c>
-      <c r="H36">
+      <c r="F36" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2723,7 +2824,7 @@
       <c r="K36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M36" s="3" t="s">
@@ -2735,21 +2836,21 @@
       <c r="O36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P36" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>25</v>
-      </c>
-      <c r="S36" t="s">
+      <c r="P36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="5"/>
     </row>
-    <row r="37" ht="14.25">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>96</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2758,19 +2859,19 @@
       <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G37">
-        <v>1000</v>
-      </c>
-      <c r="H37">
+      <c r="F37" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -2782,7 +2883,7 @@
       <c r="K37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M37" s="3" t="s">
@@ -2794,18 +2895,18 @@
       <c r="O37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P37" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>25</v>
-      </c>
-      <c r="S37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25">
-      <c r="A38" t="s">
+      <c r="P37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2814,19 +2915,19 @@
       <c r="C38" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F38" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G38">
-        <v>1000</v>
-      </c>
-      <c r="H38">
+      <c r="F38" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -2838,7 +2939,7 @@
       <c r="K38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M38" s="3" t="s">
@@ -2850,13 +2951,13 @@
       <c r="O38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P38" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>25</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="P38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="T38" s="4"/>
@@ -2864,8 +2965,8 @@
       <c r="V38" s="4"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" ht="14.25">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -2874,19 +2975,19 @@
       <c r="C39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G39">
-        <v>1000</v>
-      </c>
-      <c r="H39">
+      <c r="F39" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -2898,7 +2999,7 @@
       <c r="K39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M39" s="3" t="s">
@@ -2910,18 +3011,18 @@
       <c r="O39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P39" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25">
-      <c r="A40" t="s">
+      <c r="P39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2930,19 +3031,19 @@
       <c r="C40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F40" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G40">
-        <v>1000</v>
-      </c>
-      <c r="H40">
+      <c r="F40" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -2954,7 +3055,7 @@
       <c r="K40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M40" s="3" t="s">
@@ -2966,18 +3067,18 @@
       <c r="O40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="Q40" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="S40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25">
-      <c r="A41" t="s">
+      <c r="S40" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -2986,19 +3087,19 @@
       <c r="C41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G41">
-        <v>1000</v>
-      </c>
-      <c r="H41">
+      <c r="F41" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3010,7 +3111,7 @@
       <c r="K41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M41" s="3" t="s">
@@ -3022,18 +3123,18 @@
       <c r="O41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="Q41" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="S41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25">
-      <c r="A42" t="s">
+      <c r="S41" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3042,19 +3143,19 @@
       <c r="C42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G42">
-        <v>1000</v>
-      </c>
-      <c r="H42">
+      <c r="F42" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3066,7 +3167,7 @@
       <c r="K42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M42" s="3" t="s">
@@ -3078,18 +3179,18 @@
       <c r="O42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="S42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25">
-      <c r="A43" t="s">
+      <c r="S42" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>108</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3098,19 +3199,19 @@
       <c r="C43" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G43">
-        <v>1000</v>
-      </c>
-      <c r="H43">
+      <c r="F43" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3122,7 +3223,7 @@
       <c r="K43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M43" s="3" t="s">
@@ -3134,18 +3235,18 @@
       <c r="O43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="S43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25">
-      <c r="A44" t="s">
+      <c r="S43" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3154,19 +3255,19 @@
       <c r="C44" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G44">
-        <v>1000</v>
-      </c>
-      <c r="H44">
+      <c r="F44" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -3178,7 +3279,7 @@
       <c r="K44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -3190,18 +3291,18 @@
       <c r="O44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P44" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>25</v>
-      </c>
-      <c r="S44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25">
-      <c r="A45" t="s">
+      <c r="P44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3210,19 +3311,19 @@
       <c r="C45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G45">
-        <v>1000</v>
-      </c>
-      <c r="H45">
+      <c r="F45" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3234,7 +3335,7 @@
       <c r="K45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M45" s="3" t="s">
@@ -3246,95 +3347,95 @@
       <c r="O45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P45" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>25</v>
-      </c>
-      <c r="S45" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25">
-      <c r="A46" t="s">
+      <c r="P45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F46" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G46">
-        <v>1000</v>
-      </c>
-      <c r="H46">
-        <v>600</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="3">
-        <v>45384</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>25</v>
-      </c>
-      <c r="S46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25">
-      <c r="A47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="2" t="n">
         <v>123456</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F47" s="2">
-        <v>123456</v>
-      </c>
-      <c r="G47">
-        <v>1000</v>
-      </c>
-      <c r="H47">
+        <v>75</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="0" t="n">
         <v>600</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -3346,7 +3447,7 @@
       <c r="K47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="3" t="n">
         <v>45384</v>
       </c>
       <c r="M47" s="3" t="s">
@@ -3358,17 +3459,17 @@
       <c r="O47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P47" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>25</v>
-      </c>
-      <c r="S47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25">
+      <c r="P47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -3380,7 +3481,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3392,7 +3493,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="14.25">
+    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3404,7 +3505,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="14.25">
+    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3416,7 +3517,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3428,7 +3529,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3440,7 +3541,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -3452,7 +3553,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -3464,7 +3565,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3476,7 +3577,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3488,7 +3589,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3500,7 +3601,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3512,7 +3613,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" ht="14.25">
+    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3524,7 +3625,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" ht="14.25">
+    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3536,7 +3637,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -3548,7 +3649,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3560,72 +3661,49 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="J64"/>
-      <c r="K64"/>
-      <c r="L64"/>
-    </row>
-    <row r="65" ht="12.75">
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="L65"/>
-    </row>
-    <row r="66" ht="12.75">
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="L66"/>
-    </row>
-    <row r="67" ht="12.75">
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-    </row>
-    <row r="68" ht="12.75">
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="L68"/>
-    </row>
-    <row r="69" ht="12.75">
-      <c r="J69"/>
-      <c r="K69"/>
-      <c r="L69"/>
-    </row>
-    <row r="70" ht="12.75">
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-    </row>
-    <row r="71" ht="12.75"/>
-    <row r="72" ht="12.75"/>
-    <row r="73" ht="12.75"/>
-    <row r="74" ht="12.75"/>
-    <row r="75" ht="12.75"/>
-    <row r="76" ht="12.75"/>
-    <row r="77" ht="12.75"/>
-    <row r="78" ht="12.75"/>
-    <row r="79" ht="12.75"/>
-    <row r="80" ht="12.75"/>
-    <row r="81" ht="12.75"/>
-    <row r="82" ht="12.75"/>
-    <row r="83" ht="12.75"/>
-    <row r="84" ht="12.75"/>
-    <row r="85" ht="12.75"/>
-    <row r="86" ht="12.75"/>
-    <row r="87" ht="12.75"/>
-    <row r="88" ht="12.75"/>
-    <row r="89" ht="12.75"/>
-    <row r="90" ht="12.75"/>
-    <row r="91" ht="12.75"/>
-    <row r="92" ht="12.75"/>
-    <row r="93" ht="12.75"/>
-    <row r="94" ht="12.75"/>
-    <row r="95" ht="12.75"/>
-    <row r="96" ht="12.75"/>
-    <row r="97" ht="12.75"/>
-    <row r="98" ht="12.75"/>
-    <row r="99" ht="12.75"/>
-    <row r="100" ht="12.75"/>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <headerFooter alignWithMargins="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>